--- a/planilha2.xlsx
+++ b/planilha2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Infocar\Desktop\ProjetoPython-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF2452A-D395-434C-9E2D-A1306A226AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165ED429-B2C6-4C34-8055-DF4AEC224235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>nome</t>
   </si>
@@ -33,73 +33,124 @@
     <t>OBS</t>
   </si>
   <si>
-    <t>Andre Cencin-7361@07022023</t>
-  </si>
-  <si>
-    <t>Carla Sobreira Umino-390@07022023</t>
-  </si>
-  <si>
-    <t>Copasa Leiloes-1@12042021</t>
-  </si>
-  <si>
-    <t>Copasa Leiloes-1@19042021</t>
-  </si>
-  <si>
-    <t>Copasa Leiloes-3@06072021</t>
-  </si>
-  <si>
-    <t>Copasa Leiloes-3@30062021</t>
-  </si>
-  <si>
-    <t>Copasa Leiloes-5@19082021</t>
-  </si>
-  <si>
-    <t>Copasa Leiloes-5@25082021</t>
-  </si>
-  <si>
-    <t>DER SP-3758@07022023</t>
-  </si>
-  <si>
-    <t>Daniel dos Santos Oliveira-3758@07022023</t>
-  </si>
-  <si>
-    <t>Joao Emilio de Oliveira Filho-3270@03022023</t>
-  </si>
-  <si>
-    <t>Joao Emilio de Oliveira Filho-3336@03022023</t>
-  </si>
-  <si>
-    <t>Joao Emilio de Oliveira Filho-3344@03022023</t>
-  </si>
-  <si>
-    <t>Joao Emilio de Oliveira Filho-3345@03022023</t>
-  </si>
-  <si>
-    <t>Joao Emilio de Oliveira Filho-3367@03022023</t>
-  </si>
-  <si>
-    <t>Jose Eduardo de Abreu Sodre Santoro-23451@31012023</t>
-  </si>
-  <si>
-    <t>Jose Eduardo de Abreu Sodre Santoro-23452@31012023</t>
-  </si>
-  <si>
-    <t>Jose Eduardo de Abreu Sodre Santoro-23454@03022023</t>
-  </si>
-  <si>
-    <t>Josecelli Kildare Fraga Gomes-2314@03022023</t>
-  </si>
-  <si>
-    <t>Luiz Fernando de Abreu Sodre Santoro-23434@04022023</t>
-  </si>
-  <si>
-    <t>Luiz Fernando de Abreu Sodre Santoro-23449@03022023</t>
-  </si>
-  <si>
-    <t>Paulo Eduardo Lopes Rodrigues de Souza-1607@02022023</t>
-  </si>
-  <si>
-    <t>Sandra de Fatima Santos-141@02022023</t>
+    <t>Adriano Mazanatti-135@14032023</t>
+  </si>
+  <si>
+    <t>Alvaro Antonio Mussa Pereira-69@17032023</t>
+  </si>
+  <si>
+    <t>Arnold Strass-468@16032023</t>
+  </si>
+  <si>
+    <t>Cleber da Silva Melo-197@15032023</t>
+  </si>
+  <si>
+    <t>Detran MG-301@14032023</t>
+  </si>
+  <si>
+    <t>Detran MG-391@17032023</t>
+  </si>
+  <si>
+    <t>Detran PI-1@17032023</t>
+  </si>
+  <si>
+    <t>Detran RN-VEI@17032023</t>
+  </si>
+  <si>
+    <t>Detran RS-161@15032023</t>
+  </si>
+  <si>
+    <t>Detran RS-162@15032023</t>
+  </si>
+  <si>
+    <t>Detran SP-135@14032023</t>
+  </si>
+  <si>
+    <t>Detran SP-50@14032023</t>
+  </si>
+  <si>
+    <t>Erico Lages Soares-1@17032023</t>
+  </si>
+  <si>
+    <t>Francisco Doege Esteves Filho-VEI@17032023</t>
+  </si>
+  <si>
+    <t>Gerson Atagi Ceglio-962@15032023</t>
+  </si>
+  <si>
+    <t>Gerson Atagi Ceglio-962@16032023</t>
+  </si>
+  <si>
+    <t>Joacir Monzon Pouey-239@15032023</t>
+  </si>
+  <si>
+    <t>Joao Emilio de Oliveira Filho-3404@10032023</t>
+  </si>
+  <si>
+    <t>Jorge Erli Ritta-161@15032023</t>
+  </si>
+  <si>
+    <t>Jorge Erli Ritta-162@15032023</t>
+  </si>
+  <si>
+    <t>Jose Lazaro Ribeiro Menezes Junior-64@14032023</t>
+  </si>
+  <si>
+    <t>Katia Alves Soares-567@15032023</t>
+  </si>
+  <si>
+    <t>Leilo Master-3139@15032023</t>
+  </si>
+  <si>
+    <t>Leilo Master-3141@17032023</t>
+  </si>
+  <si>
+    <t>Leilo Master-3142@17032023</t>
+  </si>
+  <si>
+    <t>Leilo Master-3154@16032023</t>
+  </si>
+  <si>
+    <t>Liliamar Fatima Parmeggiani Pestana Marques Gomes-3737@16032023</t>
+  </si>
+  <si>
+    <t>Luiz Fernando de Abreu Sodre Santoro-23588@14032023</t>
+  </si>
+  <si>
+    <t>Luiz Fernando de Abreu Sodre Santoro-23630@13032023</t>
+  </si>
+  <si>
+    <t>Luiz Fernando de Abreu Sodre Santoro-23631@14032023</t>
+  </si>
+  <si>
+    <t>Luiz Fernando de Abreu Sodre Santoro-23633@15032023</t>
+  </si>
+  <si>
+    <t>Luiz Fernando de Abreu Sodre Santoro-23636@15032023</t>
+  </si>
+  <si>
+    <t>Luiz Fernando de Abreu Sodre Santoro-23645@16032023</t>
+  </si>
+  <si>
+    <t>Luiz Fernando de Abreu Sodre Santoro-23650@14032023</t>
+  </si>
+  <si>
+    <t>Luiz Odair Favareto-1383@15032023</t>
+  </si>
+  <si>
+    <t>MaisAtivo Intermediacao de Ativos Ltda-108790@04022023</t>
+  </si>
+  <si>
+    <t>MaisAtivo Intermediacao de Ativos Ltda-108790@31012023</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Novo Hamburgo RS@16032023</t>
+  </si>
+  <si>
+    <t>Roberto Tadeu Gabriel-50@14032023</t>
+  </si>
+  <si>
+    <t>Rogerio Menezes Nunes-863@15032023</t>
   </si>
 </sst>
 </file>
@@ -150,20 +201,607 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="158">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1430,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,351 +2168,359 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A36:A39">
-    <cfRule type="duplicateValues" dxfId="98" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="97" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="96" priority="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="95" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="94" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40 A42:A45">
-    <cfRule type="duplicateValues" dxfId="93" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="92" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="91" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="90" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="89" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="88" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="87" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="86" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="85" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="84" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="83" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="81" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="80" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="79" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="78" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="76" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="74" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="72" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="68" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="67" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A45">
-    <cfRule type="duplicateValues" dxfId="66" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A34">
-    <cfRule type="duplicateValues" dxfId="63" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="62" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="61" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A32 A35">
-    <cfRule type="duplicateValues" dxfId="59" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="58" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="56" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="55" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="54" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="53" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="52" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="51" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="50" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="45" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
+  <conditionalFormatting sqref="A42:A50">
+    <cfRule type="duplicateValues" dxfId="94" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A69">
+    <cfRule type="duplicateValues" dxfId="63" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="201"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="32" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="31" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A24 A2:A17">
+  <conditionalFormatting sqref="A25:A41 A2:A23">
     <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A25:A41 A2:A23">
     <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A25:A41 A2:A23">
     <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A25:A41 A2:A23">
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A25:A41 A2:A23">
     <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="17" priority="17"/>
     <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="12" priority="12"/>
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="10" priority="10"/>
     <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
     <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A41">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
